--- a/public/download/05.项目人员合同导入模板.xlsx
+++ b/public/download/05.项目人员合同导入模板.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\old3\Desktop\222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcos/Documents/work/gchf/xn-gchf-company/public/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6724A-9423-4254-B7B3-7D9D9D9DA108}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21820" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,15 +56,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -68,6 +73,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -75,6 +81,7 @@
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,7 +134,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,25 +414,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.4609375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.4609375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.84375" style="2"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -438,10 +448,10 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -452,18 +462,14 @@
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"固定期限合同,以完成一定工作为期限的合同"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{758A0574-BF36-4160-A472-0DA570A18A44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"米,平方米,立方米"</formula1>
     </dataValidation>
   </dataValidations>
